--- a/data/spring-cloud-shop/shop-platform-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-platform-model_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5997" uniqueCount="336">
   <si>
     <t>Class Name</t>
   </si>
@@ -672,15 +672,15 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>col</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>col</t>
-  </si>
-  <si>
     <t>props</t>
   </si>
   <si>
@@ -696,162 +696,162 @@
     <t>max</t>
   </si>
   <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>startPlaceholder</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>showInput</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>customClass</t>
+  </si>
+  <si>
+    <t>showLabel</t>
+  </si>
+  <si>
     <t>clearable</t>
   </si>
   <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>beRange</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>endPlaceholder</t>
+  </si>
+  <si>
+    <t>editable</t>
+  </si>
+  <si>
+    <t>showAlpha</t>
+  </si>
+  <si>
+    <t>arrowControl</t>
+  </si>
+  <si>
+    <t>bizType</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>allowHalf</t>
+  </si>
+  <si>
+    <t>filterable</t>
+  </si>
+  <si>
+    <t>remoteUrl</t>
+  </si>
+  <si>
     <t>dataType</t>
   </si>
   <si>
-    <t>width</t>
+    <t>step</t>
+  </si>
+  <si>
+    <t>readonly</t>
   </si>
   <si>
     <t>placeholder</t>
   </si>
   <si>
-    <t>inline</t>
-  </si>
-  <si>
-    <t>remoteUrl</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>allowHalf</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>beRange</t>
-  </si>
-  <si>
-    <t>showAlpha</t>
-  </si>
-  <si>
-    <t>showInput</t>
-  </si>
-  <si>
-    <t>endPlaceholder</t>
-  </si>
-  <si>
-    <t>showLabel</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rules</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>customClass</t>
-  </si>
-  <si>
-    <t>arrowControl</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>editable</t>
-  </si>
-  <si>
-    <t>startPlaceholder</t>
-  </si>
-  <si>
-    <t>readonly</t>
-  </si>
-  <si>
-    <t>filterable</t>
-  </si>
-  <si>
-    <t>bizType</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>defaultValue</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>model</t>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>suffixIcon</t>
   </si>
   <si>
     <t>datasource</t>
   </si>
   <si>
-    <t>minLength</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>precision</t>
   </si>
   <si>
     <t>maxLength</t>
   </si>
   <si>
+    <t>prefixIcon</t>
+  </si>
+  <si>
     <t>autosize</t>
   </si>
   <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>suffixIcon</t>
-  </si>
-  <si>
-    <t>prefixIcon</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>INITIAL_CIPHER_SMS</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>FORGET_SMS</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>LOGIN_SMS</t>
+  </si>
+  <si>
     <t>REGISTER_SMS</t>
   </si>
   <si>
-    <t>INITIAL_CIPHER_SMS</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>LOGIN_SMS</t>
-  </si>
-  <si>
     <t>configType</t>
   </si>
   <si>
     <t>configStatus</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>configName</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>smsTemplateCode</t>
   </si>
   <si>
@@ -867,12 +867,12 @@
     <t>phone</t>
   </si>
   <si>
+    <t>configValue</t>
+  </si>
+  <si>
     <t>configKey</t>
   </si>
   <si>
-    <t>configValue</t>
-  </si>
-  <si>
     <t>templateCode</t>
   </si>
   <si>
@@ -1002,10 +1002,10 @@
     <t>11</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>452</t>
@@ -7844,7 +7844,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C394"/>
+  <dimension ref="A1:C392"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9417,10 +9417,10 @@
         <v>132</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144">
@@ -9428,7 +9428,7 @@
         <v>132</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>315</v>
@@ -9436,13 +9436,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146">
@@ -9450,10 +9450,10 @@
         <v>149</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147">
@@ -9461,10 +9461,10 @@
         <v>149</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148">
@@ -9472,10 +9472,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149">
@@ -9483,10 +9483,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150">
@@ -9494,7 +9494,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>315</v>
@@ -9505,7 +9505,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>315</v>
@@ -9516,7 +9516,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>315</v>
@@ -9527,7 +9527,7 @@
         <v>149</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>315</v>
@@ -9535,13 +9535,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155">
@@ -9549,10 +9549,10 @@
         <v>151</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156">
@@ -9560,10 +9560,10 @@
         <v>151</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157">
@@ -9571,10 +9571,10 @@
         <v>151</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158">
@@ -9582,10 +9582,10 @@
         <v>151</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159">
@@ -9593,7 +9593,7 @@
         <v>151</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>315</v>
@@ -9604,7 +9604,7 @@
         <v>151</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>315</v>
@@ -9615,7 +9615,7 @@
         <v>151</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>315</v>
@@ -9626,7 +9626,7 @@
         <v>151</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>315</v>
@@ -9637,7 +9637,7 @@
         <v>151</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>315</v>
@@ -9648,7 +9648,7 @@
         <v>151</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>315</v>
@@ -9659,7 +9659,7 @@
         <v>151</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>315</v>
@@ -9670,7 +9670,7 @@
         <v>151</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>315</v>
@@ -9681,7 +9681,7 @@
         <v>151</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>315</v>
@@ -9692,7 +9692,7 @@
         <v>151</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>315</v>
@@ -9700,13 +9700,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170">
@@ -9714,10 +9714,10 @@
         <v>161</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171">
@@ -9725,10 +9725,10 @@
         <v>161</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="172">
@@ -9736,10 +9736,10 @@
         <v>161</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173">
@@ -9747,21 +9747,21 @@
         <v>161</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175">
@@ -9769,10 +9769,10 @@
         <v>163</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176">
@@ -9780,10 +9780,10 @@
         <v>163</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177">
@@ -9791,10 +9791,10 @@
         <v>163</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178">
@@ -9802,10 +9802,10 @@
         <v>163</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179">
@@ -9813,7 +9813,7 @@
         <v>163</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>315</v>
@@ -9824,7 +9824,7 @@
         <v>163</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>315</v>
@@ -9835,7 +9835,7 @@
         <v>163</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>315</v>
@@ -9846,7 +9846,7 @@
         <v>163</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>315</v>
@@ -9854,13 +9854,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="184">
@@ -9868,10 +9868,10 @@
         <v>169</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185">
@@ -9879,7 +9879,7 @@
         <v>169</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>315</v>
@@ -9890,7 +9890,7 @@
         <v>169</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>315</v>
@@ -9901,7 +9901,7 @@
         <v>169</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>315</v>
@@ -9912,7 +9912,7 @@
         <v>169</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>315</v>
@@ -9923,7 +9923,7 @@
         <v>169</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>315</v>
@@ -9934,7 +9934,7 @@
         <v>169</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>315</v>
@@ -9945,7 +9945,7 @@
         <v>169</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>315</v>
@@ -9956,7 +9956,7 @@
         <v>169</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>315</v>
@@ -9967,7 +9967,7 @@
         <v>169</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>315</v>
@@ -9978,7 +9978,7 @@
         <v>169</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>315</v>
@@ -9989,7 +9989,7 @@
         <v>169</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>315</v>
@@ -10000,7 +10000,7 @@
         <v>169</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>315</v>
@@ -10011,7 +10011,7 @@
         <v>169</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>315</v>
@@ -10022,7 +10022,7 @@
         <v>169</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>315</v>
@@ -10033,7 +10033,7 @@
         <v>169</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>315</v>
@@ -10044,7 +10044,7 @@
         <v>169</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>315</v>
@@ -10055,7 +10055,7 @@
         <v>169</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>315</v>
@@ -10066,7 +10066,7 @@
         <v>169</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>315</v>
@@ -10077,7 +10077,7 @@
         <v>169</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>315</v>
@@ -10088,7 +10088,7 @@
         <v>169</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>315</v>
@@ -10099,7 +10099,7 @@
         <v>169</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>315</v>
@@ -10110,7 +10110,7 @@
         <v>169</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>315</v>
@@ -10121,7 +10121,7 @@
         <v>169</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>315</v>
@@ -10132,7 +10132,7 @@
         <v>169</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>315</v>
@@ -10143,7 +10143,7 @@
         <v>169</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>315</v>
@@ -10154,7 +10154,7 @@
         <v>169</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>315</v>
@@ -10165,7 +10165,7 @@
         <v>169</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>315</v>
@@ -10176,7 +10176,7 @@
         <v>169</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>315</v>
@@ -10187,7 +10187,7 @@
         <v>169</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>315</v>
@@ -10198,7 +10198,7 @@
         <v>169</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>315</v>
@@ -10209,7 +10209,7 @@
         <v>169</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>315</v>
@@ -10220,7 +10220,7 @@
         <v>169</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>315</v>
@@ -10231,7 +10231,7 @@
         <v>169</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>315</v>
@@ -10242,7 +10242,7 @@
         <v>169</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>315</v>
@@ -10253,7 +10253,7 @@
         <v>169</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>315</v>
@@ -10264,7 +10264,7 @@
         <v>169</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>315</v>
@@ -10275,7 +10275,7 @@
         <v>169</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>315</v>
@@ -10286,7 +10286,7 @@
         <v>169</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>315</v>
@@ -10297,7 +10297,7 @@
         <v>169</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>315</v>
@@ -10308,7 +10308,7 @@
         <v>169</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>315</v>
@@ -10319,7 +10319,7 @@
         <v>169</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>315</v>
@@ -10330,7 +10330,7 @@
         <v>169</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>315</v>
@@ -10341,7 +10341,7 @@
         <v>169</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>315</v>
@@ -10352,7 +10352,7 @@
         <v>169</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>315</v>
@@ -10363,7 +10363,7 @@
         <v>169</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>315</v>
@@ -10374,7 +10374,7 @@
         <v>169</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>315</v>
@@ -10385,7 +10385,7 @@
         <v>169</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>315</v>
@@ -10396,7 +10396,7 @@
         <v>169</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>315</v>
@@ -10407,7 +10407,7 @@
         <v>169</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>315</v>
@@ -10418,7 +10418,7 @@
         <v>169</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>315</v>
@@ -10429,7 +10429,7 @@
         <v>169</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>315</v>
@@ -10440,7 +10440,7 @@
         <v>169</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>315</v>
@@ -10451,7 +10451,7 @@
         <v>169</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>315</v>
@@ -10462,7 +10462,7 @@
         <v>169</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>315</v>
@@ -10473,7 +10473,7 @@
         <v>169</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>315</v>
@@ -10484,7 +10484,7 @@
         <v>169</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>315</v>
@@ -10495,7 +10495,7 @@
         <v>169</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>315</v>
@@ -10506,7 +10506,7 @@
         <v>169</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>315</v>
@@ -10517,7 +10517,7 @@
         <v>169</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>315</v>
@@ -10528,7 +10528,7 @@
         <v>169</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>315</v>
@@ -10539,7 +10539,7 @@
         <v>169</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>315</v>
@@ -10550,7 +10550,7 @@
         <v>169</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>315</v>
@@ -10561,7 +10561,7 @@
         <v>169</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>315</v>
@@ -10572,7 +10572,7 @@
         <v>169</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>315</v>
@@ -10583,7 +10583,7 @@
         <v>169</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>315</v>
@@ -10594,7 +10594,7 @@
         <v>169</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>315</v>
@@ -10605,7 +10605,7 @@
         <v>169</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>315</v>
@@ -10616,10 +10616,10 @@
         <v>169</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253">
@@ -10627,10 +10627,10 @@
         <v>169</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254">
@@ -10638,10 +10638,10 @@
         <v>169</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="255">
@@ -10649,21 +10649,21 @@
         <v>169</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="257">
@@ -10671,10 +10671,10 @@
         <v>173</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="258">
@@ -10682,10 +10682,10 @@
         <v>173</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="259">
@@ -10693,10 +10693,10 @@
         <v>173</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="260">
@@ -10704,10 +10704,10 @@
         <v>173</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="261">
@@ -10715,7 +10715,7 @@
         <v>173</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>315</v>
@@ -10726,7 +10726,7 @@
         <v>173</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>315</v>
@@ -10737,7 +10737,7 @@
         <v>173</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>315</v>
@@ -10748,7 +10748,7 @@
         <v>173</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>315</v>
@@ -10759,7 +10759,7 @@
         <v>173</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>315</v>
@@ -10770,7 +10770,7 @@
         <v>173</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>315</v>
@@ -10781,7 +10781,7 @@
         <v>173</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>315</v>
@@ -10792,7 +10792,7 @@
         <v>173</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>315</v>
@@ -10800,13 +10800,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="270">
@@ -10814,10 +10814,10 @@
         <v>175</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="271">
@@ -10825,10 +10825,10 @@
         <v>175</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="272">
@@ -10836,10 +10836,10 @@
         <v>175</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="273">
@@ -10847,10 +10847,10 @@
         <v>175</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="274">
@@ -10858,7 +10858,7 @@
         <v>175</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>315</v>
@@ -10869,7 +10869,7 @@
         <v>175</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>315</v>
@@ -10880,7 +10880,7 @@
         <v>175</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>315</v>
@@ -10891,7 +10891,7 @@
         <v>175</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>315</v>
@@ -10899,13 +10899,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="279">
@@ -10913,10 +10913,10 @@
         <v>181</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="280">
@@ -10924,10 +10924,10 @@
         <v>181</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="281">
@@ -10935,10 +10935,10 @@
         <v>181</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="282">
@@ -10946,10 +10946,10 @@
         <v>181</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="283">
@@ -10957,7 +10957,7 @@
         <v>181</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>315</v>
@@ -10968,7 +10968,7 @@
         <v>181</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>315</v>
@@ -10979,7 +10979,7 @@
         <v>181</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>315</v>
@@ -10990,7 +10990,7 @@
         <v>181</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>315</v>
@@ -11001,7 +11001,7 @@
         <v>181</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>315</v>
@@ -11012,7 +11012,7 @@
         <v>181</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>315</v>
@@ -11023,7 +11023,7 @@
         <v>181</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>315</v>
@@ -11034,7 +11034,7 @@
         <v>181</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>315</v>
@@ -11045,7 +11045,7 @@
         <v>181</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>315</v>
@@ -11056,7 +11056,7 @@
         <v>181</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>315</v>
@@ -11067,7 +11067,7 @@
         <v>181</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>315</v>
@@ -11075,21 +11075,21 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>315</v>
@@ -11100,10 +11100,10 @@
         <v>187</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="297">
@@ -11111,10 +11111,10 @@
         <v>187</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="298">
@@ -11122,10 +11122,10 @@
         <v>187</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299">
@@ -11133,10 +11133,10 @@
         <v>187</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="300">
@@ -11144,7 +11144,7 @@
         <v>187</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>315</v>
@@ -11155,7 +11155,7 @@
         <v>187</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C301" t="s" s="0">
         <v>315</v>
@@ -11166,7 +11166,7 @@
         <v>187</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>315</v>
@@ -11177,7 +11177,7 @@
         <v>187</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>315</v>
@@ -11188,7 +11188,7 @@
         <v>187</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>315</v>
@@ -11199,7 +11199,7 @@
         <v>187</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>315</v>
@@ -11210,7 +11210,7 @@
         <v>187</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>315</v>
@@ -11221,7 +11221,7 @@
         <v>187</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>315</v>
@@ -11232,7 +11232,7 @@
         <v>187</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>315</v>
@@ -11240,21 +11240,21 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C310" t="s" s="0">
         <v>315</v>
@@ -11265,10 +11265,10 @@
         <v>189</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="312">
@@ -11276,10 +11276,10 @@
         <v>189</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313">
@@ -11287,10 +11287,10 @@
         <v>189</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314">
@@ -11298,10 +11298,10 @@
         <v>189</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="315">
@@ -11309,7 +11309,7 @@
         <v>189</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>315</v>
@@ -11320,7 +11320,7 @@
         <v>189</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C316" t="s" s="0">
         <v>315</v>
@@ -11331,7 +11331,7 @@
         <v>189</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C317" t="s" s="0">
         <v>315</v>
@@ -11342,7 +11342,7 @@
         <v>189</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="C318" t="s" s="0">
         <v>315</v>
@@ -11353,7 +11353,7 @@
         <v>189</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>315</v>
@@ -11361,21 +11361,21 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>315</v>
@@ -11386,7 +11386,7 @@
         <v>191</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C322" t="s" s="0">
         <v>327</v>
@@ -11397,10 +11397,10 @@
         <v>191</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="324">
@@ -11408,29 +11408,29 @@
         <v>191</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>315</v>
@@ -11441,10 +11441,10 @@
         <v>193</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="328">
@@ -11452,10 +11452,10 @@
         <v>193</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="329">
@@ -11463,10 +11463,10 @@
         <v>193</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="330">
@@ -11474,10 +11474,10 @@
         <v>193</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="331">
@@ -11485,7 +11485,7 @@
         <v>193</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>315</v>
@@ -11496,7 +11496,7 @@
         <v>193</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>315</v>
@@ -11507,7 +11507,7 @@
         <v>193</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>315</v>
@@ -11518,7 +11518,7 @@
         <v>193</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>315</v>
@@ -11529,7 +11529,7 @@
         <v>193</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>315</v>
@@ -11540,7 +11540,7 @@
         <v>193</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>315</v>
@@ -11551,7 +11551,7 @@
         <v>193</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>315</v>
@@ -11562,7 +11562,7 @@
         <v>193</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>315</v>
@@ -11573,7 +11573,7 @@
         <v>193</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>315</v>
@@ -11581,21 +11581,21 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>315</v>
@@ -11606,10 +11606,10 @@
         <v>195</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="343">
@@ -11617,7 +11617,7 @@
         <v>195</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>315</v>
@@ -11628,7 +11628,7 @@
         <v>195</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>315</v>
@@ -11639,7 +11639,7 @@
         <v>195</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>315</v>
@@ -11650,7 +11650,7 @@
         <v>195</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>315</v>
@@ -11661,10 +11661,10 @@
         <v>195</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="348">
@@ -11672,7 +11672,7 @@
         <v>195</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>315</v>
@@ -11683,10 +11683,10 @@
         <v>195</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="350">
@@ -11694,7 +11694,7 @@
         <v>195</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>315</v>
@@ -11702,21 +11702,21 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>315</v>
@@ -11727,10 +11727,10 @@
         <v>197</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="354">
@@ -11738,10 +11738,10 @@
         <v>197</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="355">
@@ -11749,10 +11749,10 @@
         <v>197</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="356">
@@ -11760,10 +11760,10 @@
         <v>197</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="357">
@@ -11771,7 +11771,7 @@
         <v>197</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C357" t="s" s="0">
         <v>315</v>
@@ -11782,7 +11782,7 @@
         <v>197</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C358" t="s" s="0">
         <v>315</v>
@@ -11793,7 +11793,7 @@
         <v>197</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C359" t="s" s="0">
         <v>315</v>
@@ -11804,7 +11804,7 @@
         <v>197</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C360" t="s" s="0">
         <v>315</v>
@@ -11815,7 +11815,7 @@
         <v>197</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>315</v>
@@ -11823,21 +11823,21 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="C363" t="s" s="0">
         <v>315</v>
@@ -11848,10 +11848,10 @@
         <v>199</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="365">
@@ -11859,7 +11859,7 @@
         <v>199</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C365" t="s" s="0">
         <v>315</v>
@@ -11870,7 +11870,7 @@
         <v>199</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C366" t="s" s="0">
         <v>315</v>
@@ -11881,7 +11881,7 @@
         <v>199</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C367" t="s" s="0">
         <v>315</v>
@@ -11892,7 +11892,7 @@
         <v>199</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C368" t="s" s="0">
         <v>315</v>
@@ -11903,10 +11903,10 @@
         <v>199</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="370">
@@ -11914,7 +11914,7 @@
         <v>199</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>315</v>
@@ -11925,10 +11925,10 @@
         <v>199</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="372">
@@ -11936,7 +11936,7 @@
         <v>199</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>315</v>
@@ -11944,21 +11944,21 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C374" t="s" s="0">
         <v>315</v>
@@ -11969,7 +11969,7 @@
         <v>18</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>315</v>
@@ -11980,10 +11980,10 @@
         <v>18</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="377">
@@ -11991,7 +11991,7 @@
         <v>18</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>315</v>
@@ -12002,10 +12002,10 @@
         <v>18</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="379">
@@ -12013,7 +12013,7 @@
         <v>18</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>315</v>
@@ -12021,21 +12021,21 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="0">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="0">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>315</v>
@@ -12046,10 +12046,10 @@
         <v>208</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C382" t="s" s="0">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="383">
@@ -12057,7 +12057,7 @@
         <v>208</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>315</v>
@@ -12068,7 +12068,7 @@
         <v>208</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>315</v>
@@ -12079,7 +12079,7 @@
         <v>208</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>315</v>
@@ -12090,7 +12090,7 @@
         <v>208</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>315</v>
@@ -12101,7 +12101,7 @@
         <v>208</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>315</v>
@@ -12112,7 +12112,7 @@
         <v>208</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>315</v>
@@ -12123,10 +12123,10 @@
         <v>208</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="390">
@@ -12134,7 +12134,7 @@
         <v>208</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>315</v>
@@ -12145,10 +12145,10 @@
         <v>208</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C391" t="s" s="0">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="392">
@@ -12156,31 +12156,9 @@
         <v>208</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s" s="0">
-        <v>208</v>
-      </c>
-      <c r="B393" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C393" t="s" s="0">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s" s="0">
-        <v>208</v>
-      </c>
-      <c r="B394" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C394" t="s" s="0">
         <v>315</v>
       </c>
     </row>
@@ -12249,7 +12227,7 @@
         <v>148</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -12263,7 +12241,7 @@
         <v>148</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -12277,7 +12255,7 @@
         <v>148</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -12327,13 +12305,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>51</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
@@ -12341,13 +12319,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -12355,7 +12333,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>148</v>
@@ -12369,7 +12347,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>148</v>
@@ -12383,7 +12361,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>148</v>
@@ -12397,13 +12375,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -12411,7 +12389,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>148</v>
@@ -12425,13 +12403,13 @@
         <v>29</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -12439,13 +12417,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -12453,7 +12431,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>148</v>
@@ -12467,13 +12445,13 @@
         <v>29</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -12481,13 +12459,13 @@
         <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -12495,13 +12473,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -12509,13 +12487,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -12523,13 +12501,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -12537,13 +12515,13 @@
         <v>29</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -12551,7 +12529,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>148</v>
@@ -12565,7 +12543,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>148</v>
@@ -12579,13 +12557,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -12593,13 +12571,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -12607,13 +12585,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -12621,13 +12599,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -12635,13 +12613,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -12649,13 +12627,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -12663,7 +12641,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>148</v>
@@ -12677,7 +12655,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>148</v>
@@ -12691,13 +12669,13 @@
         <v>29</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>221</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -12753,7 +12731,7 @@
         <v>148</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -12767,7 +12745,7 @@
         <v>148</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
@@ -12803,7 +12781,7 @@
         <v>107</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>148</v>
@@ -12817,13 +12795,13 @@
         <v>107</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>221</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -12831,13 +12809,13 @@
         <v>107</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45">
@@ -12845,13 +12823,13 @@
         <v>25</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>221</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -12859,7 +12837,7 @@
         <v>25</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>148</v>
@@ -12873,13 +12851,13 @@
         <v>25</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -12887,13 +12865,13 @@
         <v>25</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -12901,13 +12879,13 @@
         <v>25</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -12915,13 +12893,13 @@
         <v>25</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -12929,13 +12907,13 @@
         <v>25</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
@@ -12943,13 +12921,13 @@
         <v>25</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -12957,13 +12935,13 @@
         <v>25</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
@@ -12971,7 +12949,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>148</v>
@@ -12985,13 +12963,13 @@
         <v>25</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -12999,13 +12977,13 @@
         <v>25</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57">
@@ -13013,7 +12991,7 @@
         <v>25</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>148</v>
@@ -13027,13 +13005,13 @@
         <v>25</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -13041,7 +13019,7 @@
         <v>25</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>148</v>
@@ -13055,7 +13033,7 @@
         <v>128</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>148</v>
@@ -13083,7 +13061,7 @@
         <v>128</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>148</v>
@@ -13097,7 +13075,7 @@
         <v>128</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>148</v>
@@ -13114,10 +13092,10 @@
         <v>265</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -13142,10 +13120,10 @@
         <v>267</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -13156,10 +13134,10 @@
         <v>268</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -13184,10 +13162,10 @@
         <v>270</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
@@ -13223,7 +13201,7 @@
         <v>149</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>148</v>
@@ -13237,7 +13215,7 @@
         <v>149</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>148</v>
@@ -13279,13 +13257,13 @@
         <v>151</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -13307,7 +13285,7 @@
         <v>151</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>148</v>
@@ -13321,13 +13299,13 @@
         <v>151</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
@@ -13391,13 +13369,13 @@
         <v>169</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>31</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85">
@@ -13405,7 +13383,7 @@
         <v>169</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>148</v>
@@ -13419,13 +13397,13 @@
         <v>169</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -13433,7 +13411,7 @@
         <v>169</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>148</v>
@@ -13447,13 +13425,13 @@
         <v>169</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -13461,13 +13439,13 @@
         <v>169</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90">
@@ -13475,7 +13453,7 @@
         <v>169</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>148</v>
@@ -13489,13 +13467,13 @@
         <v>169</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92">
@@ -13503,13 +13481,13 @@
         <v>169</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -13517,13 +13495,13 @@
         <v>169</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -13531,7 +13509,7 @@
         <v>169</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>148</v>
@@ -13545,13 +13523,13 @@
         <v>169</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -13559,13 +13537,13 @@
         <v>169</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
@@ -13573,7 +13551,7 @@
         <v>169</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>148</v>
@@ -13587,7 +13565,7 @@
         <v>169</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>148</v>
@@ -13601,7 +13579,7 @@
         <v>169</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>148</v>
@@ -13615,13 +13593,13 @@
         <v>169</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -13629,13 +13607,13 @@
         <v>169</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -13643,13 +13621,13 @@
         <v>169</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -13657,13 +13635,13 @@
         <v>169</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -13671,13 +13649,13 @@
         <v>169</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -13685,7 +13663,7 @@
         <v>169</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>148</v>
@@ -13699,7 +13677,7 @@
         <v>169</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>148</v>
@@ -13713,13 +13691,13 @@
         <v>169</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
@@ -13727,7 +13705,7 @@
         <v>169</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>148</v>
@@ -13741,13 +13719,13 @@
         <v>169</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
@@ -13755,13 +13733,13 @@
         <v>169</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111">
@@ -13769,13 +13747,13 @@
         <v>169</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
@@ -13783,13 +13761,13 @@
         <v>169</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -13797,13 +13775,13 @@
         <v>169</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>221</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
@@ -13811,7 +13789,7 @@
         <v>169</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>148</v>
@@ -13825,13 +13803,13 @@
         <v>169</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -13839,7 +13817,7 @@
         <v>169</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>148</v>
@@ -13853,7 +13831,7 @@
         <v>169</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>148</v>
@@ -13867,7 +13845,7 @@
         <v>169</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>148</v>
@@ -13881,7 +13859,7 @@
         <v>173</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>148</v>
@@ -13895,13 +13873,13 @@
         <v>173</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121">
@@ -13909,13 +13887,13 @@
         <v>173</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -13937,7 +13915,7 @@
         <v>173</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>148</v>
@@ -13993,13 +13971,13 @@
         <v>181</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -14007,13 +13985,13 @@
         <v>181</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
@@ -14035,13 +14013,13 @@
         <v>181</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -14049,7 +14027,7 @@
         <v>181</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>148</v>
@@ -14063,13 +14041,13 @@
         <v>181</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133">
@@ -14077,7 +14055,7 @@
         <v>181</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>148</v>
@@ -14091,13 +14069,13 @@
         <v>187</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>221</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -14105,13 +14083,13 @@
         <v>187</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>31</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136">
@@ -14133,7 +14111,7 @@
         <v>187</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>148</v>
@@ -14147,7 +14125,7 @@
         <v>187</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>148</v>
@@ -14161,7 +14139,7 @@
         <v>187</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>148</v>
@@ -14175,7 +14153,7 @@
         <v>189</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>148</v>
@@ -14203,7 +14181,7 @@
         <v>189</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>148</v>
@@ -14259,13 +14237,13 @@
         <v>193</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>221</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -14273,13 +14251,13 @@
         <v>193</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148">
@@ -14287,13 +14265,13 @@
         <v>193</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
@@ -14301,13 +14279,13 @@
         <v>193</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150">
@@ -14315,13 +14293,13 @@
         <v>193</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
@@ -14357,7 +14335,7 @@
         <v>195</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>148</v>
@@ -14371,7 +14349,7 @@
         <v>195</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>148</v>
@@ -14385,13 +14363,13 @@
         <v>197</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>221</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
@@ -14399,13 +14377,13 @@
         <v>197</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157">
@@ -14427,7 +14405,7 @@
         <v>197</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>148</v>
@@ -14455,13 +14433,13 @@
         <v>199</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161">
@@ -14469,13 +14447,13 @@
         <v>199</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>148</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>221</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
@@ -14525,7 +14503,7 @@
         <v>208</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>148</v>
@@ -14539,7 +14517,7 @@
         <v>208</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>148</v>
@@ -14553,7 +14531,7 @@
         <v>208</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>148</v>
@@ -14567,7 +14545,7 @@
         <v>208</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>148</v>
